--- a/docs/中医药知识服务平台项目清单-于彤.xlsx
+++ b/docs/中医药知识服务平台项目清单-于彤.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,83 +94,287 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题词表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中医药学主题词表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾李蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个案库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敬华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从中医期刊等处摘出的结构化中医个案数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DartReasoner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DartMashup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本挖掘程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周雪忠，张小刚，陶金火等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤萌芽，宓金华，贾李蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中医药知识服务平台的项目、组件和数据资源清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨克特的源代码已上传GitHub（by 于彤）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈华钧，王恒，唐晶明，郑耀文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周春英，宓金华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语义映射工具，用于定义本体与关系模式之间的映射关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢骋超、付志宏、杨克特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑耀文、顾珮嶔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宓金华的源代码已上传GitHub（by 于彤）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢宾、王俊健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无代码，无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料和配置情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据资源价值高，但加工程序已被新系统替代。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用于构建临床知识库。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构化水平不高，尚需进行数据预处理工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于Web的本体开发工具，其功能可被Protégé等工具替代。主要支持RDFS,尚未提供对OWL的支持。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于Flex开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶金火的源代码已上传GitHub（by 于彤）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于领域本体，实现分布式异构数据库集成以及综合性语义查询的引擎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于Web的本体协同加工工具。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于语义Web服务的混搭（Mashup）工具。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008年版主题词表的Access数据库。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL数据库（不是最新）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DartSurvey（韦伯融智系统）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景鲲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于语义的中医药专家综合决策系统。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决了中医药领域的分布式、异构数据库的集成问题，对DartWiki和DartSearch等系统提供了必要支撑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向海量数据的语义推理的探索性工作。属于高级功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现了多术语系统的融合和联合查询，以及知识地图的可视化功能，展示性很强。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于GWT对概念信息进行展示；实现了知识地图功能；编辑功能尚未实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成中文分词、索引、排序等功能，实现CNKI关联检索、语义相关词、VML语义图工具包、相关图文聚合工具等工具。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现了海量中医药文献的语义搜索，支持分布式索引等高级功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向海量数据的语义推理引擎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于MapReduce框架实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于Java实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于SWT实现了桌面版；基于Flex实现了Web版。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于Java实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现中医药文献的分词、自动标引、实体识别、关系发现等功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DartSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DartWiki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于TCMLS实现了中文分词算法和语义关系发现等算法，是DartSearch等系统背后的核心技术，很有价值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向中医药领域的数据挖掘平台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于AJAX技术以及Rapid Miner等开源项目实现的数据挖掘平台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴毅挺、秘中凯、刘洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在中医药领域获得了成功的应用，协助中医利用各种数据源来快速创建更加丰富的应用，满足个性化的需求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它支持用户通过浏览器以可视化的方式来定制混搭应用，并将这些应用在Web上发布 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据资源价值很高，可被用于文本主题标引。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大约8000个词条。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘洋（2010）基于MapReduce实现了并行数据挖掘服务；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于Web构建数据库模式与本体之间的映射关系。可利用其它编辑器来生成映射文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术语融合平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中医药多术语系统融合平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>宓金华，贾李蓉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题词表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中医药学主题词表。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾李蓉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个案库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李敬华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从中医期刊等处摘出的结构化中医个案数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DartReasoner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DartMashup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本挖掘程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周雪忠，张小刚，陶金火等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤萌芽，宓金华，贾李蓉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中医药知识服务平台的项目、组件和数据资源清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨克特的源代码已上传GitHub（by 于彤）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈华钧，王恒，唐晶明，郑耀文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周春英，宓金华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语义映射工具，用于定义本体与关系模式之间的映射关系。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢骋超、付志宏、杨克特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑耀文、顾珮嶔</t>
+    <t>宓金华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,195 +382,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂无代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢宾、王俊健</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无代码，无数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资料和配置情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据资源价值高，但加工程序已被新系统替代。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用于构建临床知识库。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据结构化水平不高，尚需进行数据预处理工作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于Web的本体开发工具，其功能可被Protégé等工具替代。主要支持RDFS,尚未提供对OWL的支持。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于Flex开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶金火的源代码已上传GitHub（by 于彤）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于领域本体，实现分布式异构数据库集成以及综合性语义查询的引擎。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于Web的本体协同加工工具。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于语义Web服务的混搭（Mashup）工具。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2008年版主题词表的Access数据库。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL数据库（不是最新）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DartSurvey（韦伯融智系统）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景鲲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于语义的中医药专家综合决策系统。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宓金华的源代码已上传GitHub（by 于彤）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解决了中医药领域的分布式、异构数据库的集成问题，对DartWiki和DartSearch等系统提供了必要支撑。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面向海量数据的语义推理的探索性工作。属于高级功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现了多术语系统的融合和联合查询，以及知识地图的可视化功能，展示性很强。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于GWT对概念信息进行展示；实现了知识地图功能；编辑功能尚未实现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成中文分词、索引、排序等功能，实现CNKI关联检索、语义相关词、VML语义图工具包、相关图文聚合工具等工具。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现了海量中医药文献的语义搜索，支持分布式索引等高级功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面向海量数据的语义推理引擎。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于MapReduce框架实现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于Java实现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于SWT实现了桌面版；基于Flex实现了Web版。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于Java实现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现中医药文献的分词、自动标引、实体识别、关系发现等功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DartSearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DartWiki</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于TCMLS实现了中文分词算法和语义关系发现等算法，是DartSearch等系统背后的核心技术，很有价值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面向中医药领域的数据挖掘平台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于AJAX技术以及Rapid Miner等开源项目实现的数据挖掘平台。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴毅挺、秘中凯、刘洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在中医药领域获得了成功的应用，协助中医利用各种数据源来快速创建更加丰富的应用，满足个性化的需求。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>它支持用户通过浏览器以可视化的方式来定制混搭应用，并将这些应用在Web上发布 。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据资源价值很高，可被用于文本主题标引。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大约8000个词条。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘洋（2010）基于MapReduce实现了并行数据挖掘服务；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于Web构建数据库模式与本体之间的映射关系。可利用其它编辑器来生成映射文件。</t>
+    <t>实现了TCMLS,中医药学名词等多个术语系统的融合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术语融合为中医药领域亟待解决的问题，使用了DartGrid和SPARQL等语义Web技术。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,8 +500,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:G17" totalsRowShown="0" headerRowCellStyle="常规" dataCellStyle="常规">
-  <autoFilter ref="A3:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:G18" totalsRowShown="0" headerRowCellStyle="常规" dataCellStyle="常规">
+  <autoFilter ref="A3:G18"/>
   <tableColumns count="7">
     <tableColumn id="1" name="项目名称" dataDxfId="6" dataCellStyle="常规"/>
     <tableColumn id="2" name="项目简介" dataDxfId="5" dataCellStyle="常规"/>
@@ -776,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -794,7 +818,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -823,13 +847,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
@@ -843,16 +867,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -864,290 +888,311 @@
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="40.5" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="43.5" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.5" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60" customHeight="1">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="60" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="52.5" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>74</v>
+      <c r="F11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="52.5" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="52.5" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60.75" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="51" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="60.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="51" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
